--- a/biology/Botanique/Brachystephanus_mannii/Brachystephanus_mannii.xlsx
+++ b/biology/Botanique/Brachystephanus_mannii/Brachystephanus_mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachystephanus mannii C.B.Clarke est une espèce de plantes de la famille des Acanthaceae et du genre Brachystephanus, présente en Afrique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique mannii rend hommage au botaniste Gustav Mann.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une grande herbe pouvant atteindre 200 cm de hauteur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une grande herbe pouvant atteindre 200 cm de hauteur.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée en Angola, au Cameroun, au Gabon, en République du Congo[3].
-Des spécimens ont été récoltés en 2015 par Vincent Droissart dans le parc national de Campo-Ma'an, aux environs des villages d'Ebianemeyong et Nyabissan, sur la piste entre la route et le campement, entre 400 et 550 m d'altitude[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée en Angola, au Cameroun, au Gabon, en République du Congo.
+Des spécimens ont été récoltés en 2015 par Vincent Droissart dans le parc national de Campo-Ma'an, aux environs des villages d'Ebianemeyong et Nyabissan, sur la piste entre la route et le campement, entre 400 et 550 m d'altitude.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles macérées dans du jus de canne à sucre seraient utilisées au Gabon pour soigner des maladies mentales (« folie »[5]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles macérées dans du jus de canne à sucre seraient utilisées au Gabon pour soigner des maladies mentales (« folie »).
 </t>
         </is>
       </c>
